--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/результати_аналізу.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/результати_аналізу.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.993004041688556</v>
+        <v>3.996502020844278</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.992839605430005</v>
+        <v>3.996419802715002</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.293456578252318</v>
+        <v>4.146728289126159</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.291641801180907</v>
+        <v>4.145820900590453</v>
       </c>
     </row>
     <row r="11">

--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/результати_аналізу.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/результати_аналізу.xlsx
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1098500915437194</v>
+        <v>0.1016202702847998</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1706543421747682</v>
+        <v>0.1629866825357311</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1708358198819093</v>
+        <v>0.1631698380828384</v>
       </c>
     </row>
   </sheetData>
